--- a/Documentos/Calculadora de Estados.xlsx
+++ b/Documentos/Calculadora de Estados.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/macOS HD 2/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gasparrodriguezvalero/GitHub/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Estados" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
   <si>
     <t>ESTADOS</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>No es el funcionamiento literal de la IA si no una calculcadora para a partir de los posibles valores preasignados poder valorar como escogera IA realizar una acción u otra</t>
+  </si>
+  <si>
+    <t>ASUTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPC tomara el camino más corto que le aleje del personaje sin tener en cuenta </t>
   </si>
 </sst>
 </file>
@@ -302,7 +308,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -438,8 +444,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,8 +580,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -727,13 +759,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,19 +845,15 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,269 +863,311 @@
     <xf numFmtId="9" fontId="16" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="19" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1339,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V20"/>
+  <dimension ref="B2:V25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="79" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15:P18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="79" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1353,27 +1465,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
     </row>
     <row r="3" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
       <c r="O3" s="58" t="s">
         <v>57</v>
       </c>
@@ -1389,23 +1501,23 @@
       <c r="B4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="70" t="s">
+      <c r="G4" s="41"/>
+      <c r="H4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
       <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
@@ -1423,158 +1535,158 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="41" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="42"/>
-      <c r="O5" s="47" t="s">
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="O5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="41" t="s">
+      <c r="P5" s="47"/>
+      <c r="Q5" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="42"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="45"/>
     </row>
     <row r="6" spans="2:22" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="41" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="42"/>
-      <c r="O6" s="47" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+      <c r="O6" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="41" t="s">
+      <c r="P6" s="47"/>
+      <c r="Q6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="42"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="45"/>
     </row>
     <row r="7" spans="2:22" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="41" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="42"/>
-      <c r="O7" s="47" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="O7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="41" t="s">
+      <c r="P7" s="47"/>
+      <c r="Q7" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="42"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="45"/>
     </row>
     <row r="8" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="38"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="29"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="51"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="38"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="55"/>
     </row>
     <row r="9" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="29"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="51"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="55"/>
     </row>
     <row r="10" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1614,225 +1726,337 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="2:22" ht="31" x14ac:dyDescent="0.2">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="69"/>
-      <c r="O13" s="52" t="s">
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="O13" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="54"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="67"/>
     </row>
     <row r="14" spans="2:22" ht="31" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="64" t="s">
+      <c r="G14" s="50"/>
+      <c r="H14" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
-      <c r="O14" s="55" t="s">
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="50"/>
+      <c r="O14" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="55" t="s">
+      <c r="P14" s="69"/>
+      <c r="Q14" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="56"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="69"/>
     </row>
     <row r="15" spans="2:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="41" t="s">
+      <c r="G15" s="47"/>
+      <c r="H15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="42"/>
-      <c r="O15" s="47" t="s">
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
+      <c r="O15" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="41" t="s">
+      <c r="P15" s="47"/>
+      <c r="Q15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="42"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="45"/>
     </row>
     <row r="16" spans="2:22" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="41" t="s">
+      <c r="G16" s="47"/>
+      <c r="H16" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="42"/>
-      <c r="O16" s="47" t="s">
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="O16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="41" t="s">
+      <c r="P16" s="47"/>
+      <c r="Q16" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="42"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="45"/>
     </row>
     <row r="17" spans="2:22" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="41" t="s">
+      <c r="G17" s="45"/>
+      <c r="H17" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="42"/>
-      <c r="O17" s="41" t="s">
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
+      <c r="O17" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="41" t="s">
+      <c r="P17" s="45"/>
+      <c r="Q17" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="42"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="45"/>
     </row>
     <row r="18" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="29"/>
-      <c r="O18" s="41" t="s">
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="38"/>
+      <c r="O18" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="41" t="s">
+      <c r="P18" s="45"/>
+      <c r="Q18" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="42"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="45"/>
     </row>
     <row r="19" spans="2:22" ht="19" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="29"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="29"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="38"/>
     </row>
     <row r="20" spans="2:22" ht="19" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+    </row>
+    <row r="21" spans="2:22" ht="29" x14ac:dyDescent="0.2">
+      <c r="F21" s="127" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
+    </row>
+    <row r="22" spans="2:22" ht="24" x14ac:dyDescent="0.2">
+      <c r="F22" s="128" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+    </row>
+    <row r="23" spans="2:22" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="95"/>
+      <c r="H23" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+    </row>
+    <row r="24" spans="2:22" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+    </row>
+    <row r="25" spans="2:22" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="F4:G4"/>
+  <mergeCells count="78">
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="O13:V13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H17:M17"/>
     <mergeCell ref="H18:M18"/>
@@ -1849,54 +2073,11 @@
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="O13:V13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1906,13 +2087,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -1929,1234 +2110,1225 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="110"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="87"/>
     </row>
     <row r="2" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D2" s="98"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="112"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="89"/>
     </row>
     <row r="3" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="99"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="114"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="91"/>
-      <c r="I4" s="92" t="s">
+      <c r="H4" s="92"/>
+      <c r="I4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="94" t="s">
+      <c r="L4" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="95">
+      <c r="M4" s="25">
         <v>-1</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D5" s="14" t="s">
+      <c r="P4" s="109"/>
+    </row>
+    <row r="5" spans="4:16" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="121">
         <v>0.4</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="93">
         <v>0</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="22">
+      <c r="H5" s="93"/>
+      <c r="I5" s="18">
         <v>0.25</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="19">
         <v>0.75</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="24">
-        <v>1</v>
-      </c>
-      <c r="N5" s="14">
+      <c r="M5" s="116">
+        <v>1</v>
+      </c>
+      <c r="N5" s="13">
         <v>0</v>
       </c>
-      <c r="O5" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D6" s="14" t="s">
+      <c r="O5" s="15">
+        <v>1</v>
+      </c>
+      <c r="P5" s="110"/>
+    </row>
+    <row r="6" spans="4:16" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="121">
         <v>0.3</v>
       </c>
-      <c r="G6" s="74">
-        <v>1</v>
-      </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="22">
+      <c r="G6" s="93">
+        <v>1</v>
+      </c>
+      <c r="H6" s="93"/>
+      <c r="I6" s="18">
         <v>0.5</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="19">
         <v>0.5</v>
       </c>
-      <c r="L6" s="88" t="s">
+      <c r="L6" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="89">
+      <c r="M6" s="117">
         <v>0</v>
       </c>
-      <c r="N6" s="14">
-        <v>1</v>
-      </c>
-      <c r="O6" s="16">
+      <c r="N6" s="13">
+        <v>1</v>
+      </c>
+      <c r="O6" s="15">
         <v>0.75</v>
       </c>
+      <c r="P6" s="110"/>
     </row>
     <row r="7" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="121">
         <v>0.15</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="93">
         <v>2</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="22">
+      <c r="H7" s="93"/>
+      <c r="I7" s="18">
         <v>0.75</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="19">
         <v>0.25</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14">
+      <c r="L7" s="114"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="13">
         <v>2</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="15">
         <v>0.5</v>
       </c>
+      <c r="P7" s="110"/>
     </row>
     <row r="8" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="121">
         <v>0.1</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="22">
-        <v>1</v>
-      </c>
-      <c r="J8" s="15" t="s">
+      <c r="H8" s="93"/>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="23">
-        <v>1</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14">
+      <c r="K8" s="19">
+        <v>1</v>
+      </c>
+      <c r="L8" s="114"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="13">
         <v>3</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="9" spans="4:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="D9" s="14" t="s">
+      <c r="P8" s="110"/>
+    </row>
+    <row r="9" spans="4:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="D9" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="121">
         <v>0.05</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14">
+      <c r="L9" s="114"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="13">
         <v>4</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="4:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D10" s="18" t="s">
+      <c r="P9" s="110"/>
+    </row>
+    <row r="10" spans="4:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="D10" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="122">
         <f>SUM(E5:E9)</f>
         <v>1</v>
       </c>
+      <c r="P10" s="111"/>
     </row>
     <row r="11" spans="4:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="M11" s="107" t="s">
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="M11" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
     </row>
     <row r="12" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="76"/>
-      <c r="M12" s="102" t="s">
+      <c r="K12" s="97"/>
+      <c r="M12" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="100" t="s">
+      <c r="N12" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="O12" s="104" t="s">
+      <c r="O12" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="101" t="s">
+      <c r="P12" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="4:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="D13" s="21">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13">
+    <row r="13" spans="4:16" ht="21" x14ac:dyDescent="0.2">
+      <c r="D13" s="123">
+        <v>1</v>
+      </c>
+      <c r="E13" s="124">
         <v>5</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="124">
         <v>0</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="124">
         <v>4</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="123">
         <f>D13*$E$5+$E$6*M13+$E$7*N13+O13*$E$8+P13*$E$9</f>
         <v>1</v>
       </c>
-      <c r="J13" s="77" t="s">
+      <c r="J13" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="77"/>
-      <c r="M13" s="106">
+      <c r="K13" s="95"/>
+      <c r="M13" s="33">
         <f>IF(E13&gt;2,$I$8,IF(E13=2,$I$7,IF(E13=1,$I$6,IF(E13=0,$I$5,$M$6))))</f>
         <v>1</v>
       </c>
-      <c r="N13" s="103">
+      <c r="N13" s="30">
         <f>IF(F13="Cabreo",$M$5,IF(F13="Miedo",$M$4,$M$6))</f>
         <v>1</v>
       </c>
-      <c r="O13" s="104">
+      <c r="O13" s="31">
         <f>IF(G13=$N$5,$O$5,IF(G13=$N$6,$O$6,IF(G13=$N$7,$O$7,IF(G13=$N$8,$O$8,IF(G13=$N$9,$O$9,$M$6)))))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="105">
+      <c r="P13" s="32">
         <f>IF(H13=1,$K$5,IF(H13=2,$K$6,IF(H13=3,$K$7,IF(H13=4,$K$8,$M$6))))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="D14" s="21">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13">
+    <row r="14" spans="4:16" ht="21" x14ac:dyDescent="0.2">
+      <c r="D14" s="123">
+        <v>1</v>
+      </c>
+      <c r="E14" s="124">
         <v>5</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="124">
         <v>0</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="124">
         <v>4</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="123">
         <f t="shared" ref="I14:I35" si="0">D14*$E$5+$E$6*M14+$E$7*N14+O14*$E$8+P14*$E$9</f>
         <v>1</v>
       </c>
-      <c r="J14" s="77" t="s">
+      <c r="J14" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="77"/>
-      <c r="M14" s="106">
+      <c r="K14" s="95"/>
+      <c r="M14" s="33">
         <f t="shared" ref="M14:M35" si="1">IF(E14&gt;2,$I$8,IF(E14=2,$I$7,IF(E14=1,$I$6,IF(E14=0,$I$5,$M$6))))</f>
         <v>1</v>
       </c>
-      <c r="N14" s="103">
+      <c r="N14" s="30">
         <f t="shared" ref="N14:N35" si="2">IF(F14="Cabreo",$M$5,IF(F14="Miedo",$M$4,$M$6))</f>
         <v>1</v>
       </c>
-      <c r="O14" s="104">
+      <c r="O14" s="31">
         <f t="shared" ref="O14:O35" si="3">IF(G14=$N$5,$O$5,IF(G14=$N$6,$O$6,IF(G14=$N$7,$O$7,IF(G14=$N$8,$O$8,IF(G14=$N$9,$O$9,$M$6)))))</f>
         <v>1</v>
       </c>
-      <c r="P14" s="105">
+      <c r="P14" s="32">
         <f t="shared" ref="P14:P35" si="4">IF(H14=1,$K$5,IF(H14=2,$K$6,IF(H14=3,$K$7,IF(H14=4,$K$8,$M$6))))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="D15" s="21">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13">
+    <row r="15" spans="4:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="123">
+        <v>1</v>
+      </c>
+      <c r="E15" s="124">
         <v>5</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="124">
         <v>0</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="124">
         <v>4</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="75"/>
-      <c r="M15" s="106">
+      <c r="K15" s="98"/>
+      <c r="M15" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N15" s="103">
+      <c r="N15" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O15" s="104">
+      <c r="O15" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P15" s="105">
+      <c r="P15" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D16" s="21">
-        <v>1</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="D16" s="123">
+        <v>1</v>
+      </c>
+      <c r="E16" s="124">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="124">
         <v>0</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="124">
         <v>4</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="M16" s="106">
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="M16" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N16" s="103">
+      <c r="N16" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O16" s="104">
+      <c r="O16" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P16" s="105">
+      <c r="P16" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D17" s="21">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="D17" s="123">
+        <v>1</v>
+      </c>
+      <c r="E17" s="124">
         <v>5</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="124">
         <v>0</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="124">
         <v>4</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J17" s="76" t="s">
+      <c r="J17" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="76"/>
-      <c r="M17" s="106">
+      <c r="K17" s="97"/>
+      <c r="M17" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N17" s="103">
+      <c r="N17" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O17" s="104">
+      <c r="O17" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P17" s="105">
+      <c r="P17" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="D18" s="21">
-        <v>1</v>
-      </c>
-      <c r="E18" s="13">
+    <row r="18" spans="4:16" ht="21" x14ac:dyDescent="0.2">
+      <c r="D18" s="123">
+        <v>1</v>
+      </c>
+      <c r="E18" s="124">
         <v>5</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="124">
         <v>0</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="124">
         <v>4</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J18" s="77" t="s">
+      <c r="J18" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="77"/>
-      <c r="M18" s="106">
+      <c r="K18" s="95"/>
+      <c r="M18" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N18" s="103">
+      <c r="N18" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O18" s="104">
+      <c r="O18" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P18" s="105">
+      <c r="P18" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="D19" s="21">
-        <v>1</v>
-      </c>
-      <c r="E19" s="13">
+    <row r="19" spans="4:16" ht="21" x14ac:dyDescent="0.2">
+      <c r="D19" s="123">
+        <v>1</v>
+      </c>
+      <c r="E19" s="124">
         <v>5</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="124">
         <v>0</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="124">
         <v>4</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J19" s="77" t="s">
+      <c r="J19" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="77"/>
-      <c r="M19" s="106">
+      <c r="K19" s="95"/>
+      <c r="M19" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N19" s="103">
+      <c r="N19" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O19" s="104">
+      <c r="O19" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P19" s="105">
+      <c r="P19" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="D20" s="21">
-        <v>1</v>
-      </c>
-      <c r="E20" s="13">
+    <row r="20" spans="4:16" ht="21" x14ac:dyDescent="0.2">
+      <c r="D20" s="123">
+        <v>1</v>
+      </c>
+      <c r="E20" s="124">
         <v>5</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="124">
         <v>0</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="124">
         <v>4</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J20" s="77" t="s">
+      <c r="J20" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="77"/>
-      <c r="M20" s="106">
+      <c r="K20" s="95"/>
+      <c r="M20" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N20" s="103">
+      <c r="N20" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O20" s="104">
+      <c r="O20" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P20" s="105">
+      <c r="P20" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D21" s="21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="D21" s="123">
+        <v>1</v>
+      </c>
+      <c r="E21" s="124">
         <v>5</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="124">
         <v>0</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="124">
         <v>4</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="M21" s="106">
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="M21" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N21" s="103">
+      <c r="N21" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O21" s="104">
+      <c r="O21" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P21" s="105">
+      <c r="P21" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D22" s="21">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13">
+      <c r="D22" s="123">
+        <v>1</v>
+      </c>
+      <c r="E22" s="124">
         <v>5</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="124">
         <v>0</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="124">
         <v>4</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="M22" s="106">
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="M22" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N22" s="103">
+      <c r="N22" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O22" s="104">
+      <c r="O22" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P22" s="105">
+      <c r="P22" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D23" s="21">
-        <v>1</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="D23" s="123">
+        <v>1</v>
+      </c>
+      <c r="E23" s="124">
         <v>5</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="124">
         <v>0</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="124">
         <v>4</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="M23" s="106">
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="M23" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N23" s="103">
+      <c r="N23" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O23" s="104">
+      <c r="O23" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P23" s="105">
+      <c r="P23" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D24" s="21">
-        <v>1</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="D24" s="123">
+        <v>1</v>
+      </c>
+      <c r="E24" s="124">
         <v>5</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="124">
         <v>0</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="124">
         <v>4</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J24" s="76" t="s">
+      <c r="J24" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="76"/>
-      <c r="M24" s="106">
+      <c r="K24" s="97"/>
+      <c r="M24" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N24" s="103">
+      <c r="N24" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O24" s="104">
+      <c r="O24" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P24" s="105">
+      <c r="P24" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="D25" s="21">
-        <v>1</v>
-      </c>
-      <c r="E25" s="13">
+    <row r="25" spans="4:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="D25" s="123">
+        <v>1</v>
+      </c>
+      <c r="E25" s="124">
         <v>5</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="124">
         <v>0</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="124">
         <v>4</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J25" s="78" t="s">
+      <c r="J25" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="K25" s="78"/>
-      <c r="M25" s="106">
+      <c r="K25" s="99"/>
+      <c r="M25" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N25" s="103">
+      <c r="N25" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O25" s="104">
+      <c r="O25" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P25" s="105">
+      <c r="P25" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D26" s="21">
-        <v>1</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="D26" s="123">
+        <v>1</v>
+      </c>
+      <c r="E26" s="124">
         <v>5</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="124">
         <v>0</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="124">
         <v>4</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="M26" s="106">
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="M26" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N26" s="103">
+      <c r="N26" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O26" s="104">
+      <c r="O26" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P26" s="105">
+      <c r="P26" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D27" s="21">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13">
+      <c r="D27" s="123">
+        <v>1</v>
+      </c>
+      <c r="E27" s="124">
         <v>5</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="124">
         <v>0</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="124">
         <v>4</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="M27" s="106">
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="M27" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N27" s="103">
+      <c r="N27" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O27" s="104">
+      <c r="O27" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P27" s="105">
+      <c r="P27" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D28" s="21">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13">
+      <c r="D28" s="123">
+        <v>1</v>
+      </c>
+      <c r="E28" s="124">
         <v>5</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="124">
         <v>0</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="124">
         <v>4</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="M28" s="106">
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="M28" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N28" s="103">
+      <c r="N28" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O28" s="104">
+      <c r="O28" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P28" s="105">
+      <c r="P28" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D29" s="21">
-        <v>1</v>
-      </c>
-      <c r="E29" s="13">
+      <c r="D29" s="123">
+        <v>1</v>
+      </c>
+      <c r="E29" s="124">
         <v>5</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="124">
         <v>0</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="124">
         <v>4</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J29" s="76" t="s">
+      <c r="J29" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="K29" s="76"/>
-      <c r="M29" s="106">
+      <c r="K29" s="97"/>
+      <c r="M29" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N29" s="103">
+      <c r="N29" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O29" s="104">
+      <c r="O29" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P29" s="105">
+      <c r="P29" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="D30" s="21">
-        <v>1</v>
-      </c>
-      <c r="E30" s="13">
+    <row r="30" spans="4:16" ht="21" x14ac:dyDescent="0.2">
+      <c r="D30" s="123">
+        <v>1</v>
+      </c>
+      <c r="E30" s="124">
         <v>5</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="124">
         <v>0</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="124">
         <v>4</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J30" s="77" t="s">
+      <c r="J30" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="77"/>
-      <c r="M30" s="106">
+      <c r="K30" s="95"/>
+      <c r="M30" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N30" s="103">
+      <c r="N30" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O30" s="104">
+      <c r="O30" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P30" s="105">
+      <c r="P30" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="D31" s="21">
-        <v>1</v>
-      </c>
-      <c r="E31" s="13">
+    <row r="31" spans="4:16" ht="21" x14ac:dyDescent="0.2">
+      <c r="D31" s="123">
+        <v>1</v>
+      </c>
+      <c r="E31" s="124">
         <v>5</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="124">
         <v>0</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="124">
         <v>4</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J31" s="77" t="s">
+      <c r="J31" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="77"/>
-      <c r="M31" s="106">
+      <c r="K31" s="95"/>
+      <c r="M31" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N31" s="103">
+      <c r="N31" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O31" s="104">
+      <c r="O31" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P31" s="105">
+      <c r="P31" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="D32" s="21">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13">
+    <row r="32" spans="4:16" ht="21" x14ac:dyDescent="0.2">
+      <c r="D32" s="123">
+        <v>1</v>
+      </c>
+      <c r="E32" s="124">
         <v>5</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="124">
         <v>0</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="124">
         <v>4</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J32" s="75" t="s">
+      <c r="J32" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="75"/>
-      <c r="M32" s="106">
+      <c r="K32" s="98"/>
+      <c r="M32" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N32" s="103">
+      <c r="N32" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O32" s="104">
+      <c r="O32" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P32" s="105">
+      <c r="P32" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="4:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="D33" s="21">
-        <v>1</v>
-      </c>
-      <c r="E33" s="13">
+    <row r="33" spans="4:16" ht="21" x14ac:dyDescent="0.2">
+      <c r="D33" s="123">
+        <v>1</v>
+      </c>
+      <c r="E33" s="124">
         <v>5</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="124">
         <v>0</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="124">
         <v>4</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J33" s="75" t="s">
+      <c r="J33" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="75"/>
-      <c r="M33" s="106">
+      <c r="K33" s="98"/>
+      <c r="M33" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N33" s="103">
+      <c r="N33" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O33" s="104">
+      <c r="O33" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P33" s="105">
+      <c r="P33" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D34" s="21">
-        <v>1</v>
-      </c>
-      <c r="E34" s="13">
+      <c r="D34" s="123">
+        <v>1</v>
+      </c>
+      <c r="E34" s="124">
         <v>5</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="124">
         <v>0</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="124">
         <v>4</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="M34" s="106">
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="M34" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N34" s="103">
+      <c r="N34" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O34" s="104">
+      <c r="O34" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P34" s="105">
+      <c r="P34" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="4:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="D35" s="21">
-        <v>1</v>
-      </c>
-      <c r="E35" s="13">
+      <c r="D35" s="123">
+        <v>1</v>
+      </c>
+      <c r="E35" s="124">
         <v>5</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="124">
         <v>0</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="124">
         <v>4</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="M35" s="106">
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N35" s="103">
+      <c r="N35" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O35" s="104">
+      <c r="O35" s="31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P35" s="105">
+      <c r="P35" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:P3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
@@ -3173,6 +3345,23 @@
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J33:K33"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:P3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3194,38 +3383,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
     </row>
     <row r="2" spans="2:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="J2" s="83" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="J2" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
     </row>
     <row r="3" spans="2:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="87" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
       <c r="J3" s="12" t="s">
         <v>53</v>
       </c>
@@ -3235,16 +3424,16 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="2:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82" t="s">
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
       <c r="J4" s="12"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -3252,16 +3441,16 @@
       <c r="N4" s="11"/>
     </row>
     <row r="5" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
       <c r="J5" s="12"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -3269,16 +3458,16 @@
       <c r="N5" s="11"/>
     </row>
     <row r="6" spans="2:14" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="79" t="s">
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="J6" s="12"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -3286,16 +3475,16 @@
       <c r="N6" s="11"/>
     </row>
     <row r="7" spans="2:14" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82" t="s">
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
       <c r="J7" s="12"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -3311,11 +3500,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
@@ -3324,6 +3508,11 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Documentos/Calculadora de Estados.xlsx
+++ b/Documentos/Calculadora de Estados.xlsx
@@ -1112,11 +1112,233 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1124,25 +1346,7 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1151,194 +1355,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1370,20 +1400,23 @@
     <xf numFmtId="0" fontId="13" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1393,39 +1426,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1723,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="82" zoomScaleNormal="44" zoomScalePageLayoutView="44" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="82" zoomScaleNormal="44" zoomScalePageLayoutView="44" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1742,71 +1742,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
     </row>
     <row r="3" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="O3" s="97" t="s">
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="O3" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="99"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="97"/>
     </row>
     <row r="4" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="116"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="76" t="s">
+      <c r="G4" s="113"/>
+      <c r="H4" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="78"/>
-      <c r="O4" s="100" t="s">
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="113"/>
+      <c r="O4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="100" t="s">
+      <c r="P4" s="99"/>
+      <c r="Q4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
-      <c r="V4" s="101"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="99"/>
     </row>
     <row r="5" spans="2:22" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1817,203 +1817,203 @@
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="57" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="58"/>
-      <c r="O5" s="65" t="s">
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="79"/>
+      <c r="O5" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="82" t="s">
+      <c r="P5" s="76"/>
+      <c r="Q5" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="84"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="103"/>
     </row>
     <row r="6" spans="2:22" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="96"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="57" t="s">
+      <c r="G6" s="76"/>
+      <c r="H6" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="58"/>
-      <c r="O6" s="65" t="s">
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
+      <c r="O6" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="82" t="s">
+      <c r="P6" s="76"/>
+      <c r="Q6" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="84"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="103"/>
     </row>
     <row r="7" spans="2:22" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="96"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="57" t="s">
+      <c r="G7" s="76"/>
+      <c r="H7" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="58"/>
-      <c r="O7" s="57" t="s">
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="79"/>
+      <c r="O7" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="57" t="s">
+      <c r="P7" s="79"/>
+      <c r="Q7" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="58"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="79"/>
     </row>
     <row r="8" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="96"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="114" t="s">
+      <c r="G8" s="115"/>
+      <c r="H8" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="O8" s="57" t="s">
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="O8" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="61" t="s">
+      <c r="P8" s="79"/>
+      <c r="Q8" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
     </row>
     <row r="9" spans="2:22" s="53" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="160"/>
+      <c r="D9" s="89"/>
       <c r="E9" s="52"/>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="157"/>
-      <c r="H9" s="160" t="s">
+      <c r="G9" s="131"/>
+      <c r="H9" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="160"/>
-      <c r="M9" s="160"/>
-      <c r="O9" s="57" t="s">
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="O9" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="65" t="s">
+      <c r="P9" s="79"/>
+      <c r="Q9" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="67"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="76"/>
     </row>
     <row r="10" spans="2:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="114" t="s">
+      <c r="F10" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="114" t="s">
+      <c r="G10" s="83"/>
+      <c r="H10" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="O10" s="57" t="s">
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="O10" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="57" t="s">
+      <c r="P10" s="79"/>
+      <c r="Q10" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="58"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="79"/>
     </row>
     <row r="11" spans="2:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="50"/>
       <c r="D11" s="50"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="158"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
       <c r="I11" s="50"/>
@@ -2145,461 +2145,461 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="2:22" ht="31" x14ac:dyDescent="0.2">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="92"/>
-      <c r="O19" s="103" t="s">
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="123"/>
+      <c r="O19" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="106"/>
     </row>
     <row r="20" spans="2:22" ht="31" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="113"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="89"/>
-      <c r="H20" s="87" t="s">
+      <c r="G20" s="120"/>
+      <c r="H20" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="89"/>
-      <c r="O20" s="106" t="s">
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="120"/>
+      <c r="O20" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="106" t="s">
+      <c r="P20" s="108"/>
+      <c r="Q20" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="R20" s="108"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="108"/>
-      <c r="U20" s="108"/>
-      <c r="V20" s="107"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="108"/>
     </row>
     <row r="21" spans="2:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="114" t="s">
+      <c r="C21" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="114"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="85" t="s">
+      <c r="F21" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="86"/>
-      <c r="H21" s="82" t="s">
+      <c r="G21" s="117"/>
+      <c r="H21" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="84"/>
-      <c r="O21" s="65" t="s">
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="103"/>
+      <c r="O21" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="57" t="s">
+      <c r="P21" s="76"/>
+      <c r="Q21" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="58"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="79"/>
     </row>
     <row r="22" spans="2:22" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="96"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="85" t="s">
+      <c r="F22" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="86"/>
-      <c r="H22" s="82" t="s">
+      <c r="G22" s="117"/>
+      <c r="H22" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="84"/>
-      <c r="O22" s="65" t="s">
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="103"/>
+      <c r="O22" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="57" t="s">
+      <c r="P22" s="76"/>
+      <c r="Q22" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="58"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="79"/>
     </row>
     <row r="23" spans="2:22" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="65" t="s">
+      <c r="G23" s="79"/>
+      <c r="H23" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
-      <c r="O23" s="65" t="s">
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="76"/>
+      <c r="O23" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="57" t="s">
+      <c r="P23" s="76"/>
+      <c r="Q23" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="58"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="79"/>
     </row>
     <row r="24" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="65" t="s">
+      <c r="G24" s="79"/>
+      <c r="H24" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="67"/>
-      <c r="O24" s="68" t="s">
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="76"/>
+      <c r="O24" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="70" t="s">
+      <c r="P24" s="137"/>
+      <c r="Q24" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="72"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="127"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="128"/>
     </row>
     <row r="25" spans="2:22" ht="65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="65" t="s">
+      <c r="G25" s="79"/>
+      <c r="H25" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="67"/>
-      <c r="O25" s="73" t="s">
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="76"/>
+      <c r="O25" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="70" t="s">
+      <c r="P25" s="125"/>
+      <c r="Q25" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="72"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="127"/>
+      <c r="V25" s="128"/>
     </row>
     <row r="26" spans="2:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="F26" s="57" t="s">
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="F26" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="65" t="s">
+      <c r="G26" s="79"/>
+      <c r="H26" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="67"/>
-      <c r="O26" s="70" t="s">
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="76"/>
+      <c r="O26" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="70" t="s">
+      <c r="P26" s="128"/>
+      <c r="Q26" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="72"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="128"/>
     </row>
     <row r="27" spans="2:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="65" t="s">
+      <c r="G27" s="79"/>
+      <c r="H27" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="67"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="76"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="129"/>
+      <c r="U27" s="129"/>
+      <c r="V27" s="129"/>
     </row>
     <row r="28" spans="2:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O28" s="159"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="159"/>
-      <c r="R28" s="159"/>
-      <c r="S28" s="159"/>
-      <c r="T28" s="159"/>
-      <c r="U28" s="159"/>
-      <c r="V28" s="159"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
     </row>
     <row r="29" spans="2:22" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="159"/>
-      <c r="R29" s="159"/>
-      <c r="S29" s="159"/>
-      <c r="T29" s="159"/>
-      <c r="U29" s="159"/>
-      <c r="V29" s="159"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
     </row>
     <row r="30" spans="2:22" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O30" s="159"/>
-      <c r="P30" s="159"/>
-      <c r="Q30" s="159"/>
-      <c r="R30" s="159"/>
-      <c r="S30" s="159"/>
-      <c r="T30" s="159"/>
-      <c r="U30" s="159"/>
-      <c r="V30" s="159"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
     </row>
     <row r="31" spans="2:22" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O31" s="159"/>
-      <c r="P31" s="159"/>
-      <c r="Q31" s="159"/>
-      <c r="R31" s="159"/>
-      <c r="S31" s="159"/>
-      <c r="T31" s="159"/>
-      <c r="U31" s="159"/>
-      <c r="V31" s="159"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
     </row>
     <row r="32" spans="2:22" ht="38" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="6:23" ht="38" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="6:23" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="6:23" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F35" s="125" t="s">
+      <c r="F35" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="127"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="71"/>
     </row>
     <row r="36" spans="6:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="F36" s="128" t="s">
+      <c r="F36" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="129"/>
-      <c r="H36" s="128" t="s">
+      <c r="G36" s="73"/>
+      <c r="H36" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="129"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="73"/>
     </row>
     <row r="37" spans="6:23" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F37" s="65" t="s">
+      <c r="F37" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="67"/>
-      <c r="H37" s="57" t="s">
+      <c r="G37" s="76"/>
+      <c r="H37" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="58"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="79"/>
     </row>
     <row r="38" spans="6:23" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F38" s="57" t="s">
+      <c r="F38" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="58"/>
-      <c r="H38" s="63" t="s">
+      <c r="G38" s="79"/>
+      <c r="H38" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="130"/>
     </row>
     <row r="39" spans="6:23" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F39" s="57" t="s">
+      <c r="F39" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="58"/>
-      <c r="H39" s="63" t="s">
+      <c r="G39" s="79"/>
+      <c r="H39" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="130"/>
+      <c r="M39" s="130"/>
     </row>
     <row r="40" spans="6:23" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F40" s="57" t="s">
+      <c r="F40" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="58"/>
-      <c r="H40" s="57" t="s">
+      <c r="G40" s="79"/>
+      <c r="H40" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="58"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="79"/>
     </row>
     <row r="41" spans="6:23" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="57" t="s">
+      <c r="F41" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="58"/>
-      <c r="H41" s="57" t="s">
+      <c r="G41" s="79"/>
+      <c r="H41" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="58"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="79"/>
     </row>
     <row r="42" spans="6:23" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F42" s="57" t="s">
+      <c r="F42" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="58"/>
-      <c r="H42" s="57" t="s">
+      <c r="G42" s="79"/>
+      <c r="H42" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="58"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="79"/>
     </row>
     <row r="43" spans="6:23" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F43" s="131" t="s">
+      <c r="F43" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="G43" s="132"/>
-      <c r="H43" s="131" t="s">
+      <c r="G43" s="81"/>
+      <c r="H43" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="122"/>
-      <c r="M43" s="132"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="81"/>
       <c r="P43" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="6:23" ht="228" x14ac:dyDescent="0.2">
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="122"/>
-      <c r="P44" s="59" t="s">
+      <c r="F44" s="135"/>
+      <c r="G44" s="135"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="P44" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="Q44" s="60"/>
+      <c r="Q44" s="134"/>
       <c r="R44" s="54" t="s">
         <v>25</v>
       </c>
@@ -2609,105 +2609,24 @@
       <c r="V44" s="56"/>
     </row>
     <row r="45" spans="6:23" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="124" t="s">
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="124"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
     </row>
     <row r="46" spans="6:23" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F46" s="123"/>
-      <c r="G46" s="123"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
       <c r="W46" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="O19:V19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="F23:G23"/>
     <mergeCell ref="P44:Q44"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:V8"/>
@@ -2731,6 +2650,87 @@
     <mergeCell ref="H27:M27"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="O19:V19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2763,53 +2763,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="136" t="s">
+      <c r="E1" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="137"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="147"/>
     </row>
     <row r="2" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D2" s="134"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="139"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="149"/>
     </row>
     <row r="3" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="135"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="141"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
     </row>
     <row r="4" spans="4:16" ht="21" x14ac:dyDescent="0.25">
       <c r="D4" s="19" t="s">
@@ -2818,10 +2818,10 @@
       <c r="E4" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="142" t="s">
+      <c r="G4" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="142"/>
+      <c r="H4" s="152"/>
       <c r="I4" s="20" t="s">
         <v>62</v>
       </c>
@@ -2852,10 +2852,10 @@
       <c r="E5" s="45">
         <v>0.4</v>
       </c>
-      <c r="G5" s="143">
+      <c r="G5" s="138">
         <v>0</v>
       </c>
-      <c r="H5" s="143"/>
+      <c r="H5" s="138"/>
       <c r="I5" s="16">
         <v>0.25</v>
       </c>
@@ -2886,10 +2886,10 @@
       <c r="E6" s="45">
         <v>0.3</v>
       </c>
-      <c r="G6" s="143">
-        <v>1</v>
-      </c>
-      <c r="H6" s="143"/>
+      <c r="G6" s="138">
+        <v>1</v>
+      </c>
+      <c r="H6" s="138"/>
       <c r="I6" s="16">
         <v>0.5</v>
       </c>
@@ -2920,10 +2920,10 @@
       <c r="E7" s="45">
         <v>0.15</v>
       </c>
-      <c r="G7" s="143">
+      <c r="G7" s="138">
         <v>2</v>
       </c>
-      <c r="H7" s="143"/>
+      <c r="H7" s="138"/>
       <c r="I7" s="16">
         <v>0.75</v>
       </c>
@@ -2950,10 +2950,10 @@
       <c r="E8" s="45">
         <v>0.1</v>
       </c>
-      <c r="G8" s="143" t="s">
+      <c r="G8" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="143"/>
+      <c r="H8" s="138"/>
       <c r="I8" s="16">
         <v>1</v>
       </c>
@@ -3001,22 +3001,22 @@
       <c r="P10" s="35"/>
     </row>
     <row r="11" spans="4:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="D11" s="145" t="s">
+      <c r="D11" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="M11" s="144" t="s">
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="M11" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="141"/>
     </row>
     <row r="12" spans="4:16" ht="21" x14ac:dyDescent="0.25">
       <c r="D12" s="14" t="s">
@@ -3037,10 +3037,10 @@
       <c r="I12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="146" t="s">
+      <c r="J12" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="146"/>
+      <c r="K12" s="139"/>
       <c r="M12" s="27" t="s">
         <v>68</v>
       </c>
@@ -3074,10 +3074,10 @@
         <f>D13*$E$5+$E$6*M13+$E$7*N13+O13*$E$8+P13*$E$9</f>
         <v>1</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J13" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="61"/>
+      <c r="K13" s="114"/>
       <c r="M13" s="31">
         <f>IF(E13&gt;2,$I$8,IF(E13=2,$I$7,IF(E13=1,$I$6,IF(E13=0,$I$5,$M$6))))</f>
         <v>1</v>
@@ -3115,10 +3115,10 @@
         <f t="shared" ref="I14:I35" si="0">D14*$E$5+$E$6*M14+$E$7*N14+O14*$E$8+P14*$E$9</f>
         <v>1</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="61"/>
+      <c r="K14" s="114"/>
       <c r="M14" s="31">
         <f t="shared" ref="M14:M35" si="1">IF(E14&gt;2,$I$8,IF(E14=2,$I$7,IF(E14=1,$I$6,IF(E14=0,$I$5,$M$6))))</f>
         <v>1</v>
@@ -3156,10 +3156,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="63"/>
+      <c r="K15" s="130"/>
       <c r="M15" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3197,8 +3197,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
       <c r="M16" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3236,10 +3236,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J17" s="146" t="s">
+      <c r="J17" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="146"/>
+      <c r="K17" s="139"/>
       <c r="M17" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3277,10 +3277,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="61"/>
+      <c r="K18" s="114"/>
       <c r="M18" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3318,10 +3318,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J19" s="61" t="s">
+      <c r="J19" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="61"/>
+      <c r="K19" s="114"/>
       <c r="M19" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3359,10 +3359,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J20" s="61" t="s">
+      <c r="J20" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="61"/>
+      <c r="K20" s="114"/>
       <c r="M20" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3400,8 +3400,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
       <c r="M21" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3439,8 +3439,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
       <c r="M22" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3478,8 +3478,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
       <c r="M23" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3517,10 +3517,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J24" s="146" t="s">
+      <c r="J24" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="146"/>
+      <c r="K24" s="139"/>
       <c r="M24" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3558,10 +3558,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J25" s="147" t="s">
+      <c r="J25" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="147"/>
+      <c r="K25" s="140"/>
       <c r="M25" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3599,8 +3599,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
       <c r="M26" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3638,8 +3638,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
       <c r="M27" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3677,8 +3677,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J28" s="143"/>
-      <c r="K28" s="143"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
       <c r="M28" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3716,10 +3716,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J29" s="146" t="s">
+      <c r="J29" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="K29" s="146"/>
+      <c r="K29" s="139"/>
       <c r="M29" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3757,10 +3757,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J30" s="61" t="s">
+      <c r="J30" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="61"/>
+      <c r="K30" s="114"/>
       <c r="M30" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3798,10 +3798,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J31" s="61" t="s">
+      <c r="J31" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="61"/>
+      <c r="K31" s="114"/>
       <c r="M31" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3839,10 +3839,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J32" s="63" t="s">
+      <c r="J32" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="63"/>
+      <c r="K32" s="130"/>
       <c r="M32" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3880,10 +3880,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J33" s="63" t="s">
+      <c r="J33" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="63"/>
+      <c r="K33" s="130"/>
       <c r="M33" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3921,8 +3921,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J34" s="143"/>
-      <c r="K34" s="143"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
       <c r="M34" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3960,8 +3960,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J35" s="143"/>
-      <c r="K35" s="143"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="138"/>
       <c r="L35" s="36"/>
       <c r="M35" s="31">
         <f t="shared" si="1"/>
@@ -3982,6 +3982,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:P3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
@@ -3998,23 +4015,6 @@
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J33:K33"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:P3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4036,38 +4036,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
     </row>
     <row r="2" spans="2:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="J2" s="155" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="J2" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
     </row>
     <row r="3" spans="2:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="150" t="s">
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
       <c r="J3" s="10" t="s">
         <v>42</v>
       </c>
@@ -4077,16 +4077,16 @@
       <c r="N3" s="9"/>
     </row>
     <row r="4" spans="2:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151" t="s">
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
       <c r="J4" s="10"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -4094,16 +4094,16 @@
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151" t="s">
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
       <c r="J5" s="10"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -4111,16 +4111,16 @@
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="2:14" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="152" t="s">
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
       <c r="J6" s="10"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -4128,16 +4128,16 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:14" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151" t="s">
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
       <c r="J7" s="10"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -4153,6 +4153,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
@@ -4161,11 +4166,6 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
